--- a/export_ris.xlsx
+++ b/export_ris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t xml:space="preserve">Appendix 63
 </t>
@@ -33,7 +33,7 @@
     <t>Division :</t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGMED</t>
   </si>
   <si>
     <t>Responsibility Center Code :</t>
@@ -45,7 +45,7 @@
     <t>RIS No. :</t>
   </si>
   <si>
-    <t>2020-01</t>
+    <t>2021-098</t>
   </si>
   <si>
     <t>Requisition</t>
@@ -78,24 +78,10 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>Sack Day 1: 
-AM Snacks, Lunch and PM Snacks for 10pax
-Dinner for 2pax
-Day 2: 
-Breakfast for 2pax
-AM Snacks, Lunch and PM Snacks for 10pax</t>
-  </si>
-  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Procurement of   Meals for the Training on Installation and Configuration of IP Phones for DILG IV-A Operations Center (OPCEN)    </t>
+    <t xml:space="preserve">Procurement of  MBRTG Supplies </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -107,7 +93,7 @@
     <t>Issued by:</t>
   </si>
   <si>
-    <t>Recieved by:</t>
+    <t>Received by:</t>
   </si>
   <si>
     <t>Signature:</t>
@@ -116,7 +102,7 @@
     <t>Printed Name:</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
+    <t>DON AYER A. ABRAZALDO</t>
   </si>
   <si>
     <t>ARIEL O. IGLESIA</t>
@@ -128,7 +114,7 @@
     <t>Designation:</t>
   </si>
   <si>
-    <t>Chief, FAD</t>
+    <t>Chief, LGMED</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -145,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -191,15 +177,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -321,6 +298,9 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -332,9 +312,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -378,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -463,28 +440,19 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -539,41 +507,6 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="142875" cy="142875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,7 +802,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,326 +971,316 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="29">
-        <v>1</v>
-      </c>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="31"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="31"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="31"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="31"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="35"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="31"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="31"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="35"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="31"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="31"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="35"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="37"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="37"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="40"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="37"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="36"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="37"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="36"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="45" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="45" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="33"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="45" t="s">
+      <c r="B35" s="47"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="37"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="48" t="s">
+      <c r="B36" s="47"/>
+      <c r="C36" s="37" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="37"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="49" t="s">
+      <c r="D36" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="14"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="40"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="40" t="s">
+      <c r="A37" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="B37" s="47"/>
+      <c r="C37" s="37" t="s">
         <v>32</v>
       </c>
+      <c r="D37" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="32" t="s">
-        <v>33</v>
+      <c r="F37" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="G37" s="15"/>
-      <c r="H37" s="40"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="40" t="s">
+      <c r="A38" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="F38" s="14"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="40"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="40"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="24"/>
@@ -3218,16 +3141,16 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:H29"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="B32:H33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:H28"/>
+    <mergeCell ref="B29:H30"/>
+    <mergeCell ref="B31:H32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0.5" footer="0.5"/>
@@ -3240,6 +3163,5 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>